--- a/jurusan.xlsx
+++ b/jurusan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tara\coding\projek sda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82D889B-BE99-4495-B36E-011F62E82E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653DF0E6-59D1-466E-811C-B05696011864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{243C09BF-F8FA-4219-A320-5573DFDA8F9E}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{243C09BF-F8FA-4219-A320-5573DFDA8F9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,48 +101,6 @@
     <t>S1 Kecedasan Artifisial</t>
   </si>
   <si>
-    <t>Belajar mengajar matematika di tingkat sekolah.</t>
-  </si>
-  <si>
-    <t>Studi matematika murni dan terapan.</t>
-  </si>
-  <si>
-    <t>Mengelola risiko keuangan menggunakan matematika dan statistik.</t>
-  </si>
-  <si>
-    <t>Mengolah dan menganalisis data besar.</t>
-  </si>
-  <si>
-    <t>Fokus pada pendidikan dan pengajaran fisika.</t>
-  </si>
-  <si>
-    <t>Studi fisika murni dan aplikatif.</t>
-  </si>
-  <si>
-    <t>Fokus pada metode pengajaran kimia.</t>
-  </si>
-  <si>
-    <t>Studi zat dan reaksinya.</t>
-  </si>
-  <si>
-    <t>Mengajar dan meneliti biologi.</t>
-  </si>
-  <si>
-    <t>Studi makhluk hidup dan lingkungannya.</t>
-  </si>
-  <si>
-    <t>Mengolah data untuk menghasilkan insight.</t>
-  </si>
-  <si>
-    <t>Mempelajari sistem cerdas dan AI.</t>
-  </si>
-  <si>
-    <t>Analisis statistik dan data besar.</t>
-  </si>
-  <si>
-    <t>Kombinasi statistik dan keuangan.</t>
-  </si>
-  <si>
     <t>Guru, Dosen, Pengembang Kurikulum</t>
   </si>
   <si>
@@ -234,6 +192,48 @@
   </si>
   <si>
     <t>Statistik dan Data</t>
+  </si>
+  <si>
+    <t>Mempelajari metode pengajaran dan pemahaman konsep matematika untuk tingkat sekolah.</t>
+  </si>
+  <si>
+    <t>Mendalami teori matematika serta penerapannya dalam berbagai bidang sains dan teknologi.</t>
+  </si>
+  <si>
+    <t>Mempelajari pengelolaan risiko finansial menggunakan teori probabilitas dan statistik.</t>
+  </si>
+  <si>
+    <t>Fokus pada teknik pengumpulan, pengolahan, dan analisis data berskala besar.</t>
+  </si>
+  <si>
+    <t>Menekankan pada strategi pengajaran dan penguasaan konsep dasar fisika di sekolah.</t>
+  </si>
+  <si>
+    <t>Mempelajari hukum-hukum fisika serta aplikasinya dalam riset dan pengembangan teknologi.</t>
+  </si>
+  <si>
+    <t>Mengkaji pendekatan dalam mengajarkan konsep kimia secara efektif di tingkat sekolah.</t>
+  </si>
+  <si>
+    <t>Fokus pada struktur dan reaksi zat kimia serta penerapannya di berbagai industri.</t>
+  </si>
+  <si>
+    <t>Mempersiapkan tenaga pendidik yang menguasai konsep dan pengajaran biologi.</t>
+  </si>
+  <si>
+    <t>Mempelajari makhluk hidup dan ekosistem serta penerapannya dalam bidang riset dan lingkungan.</t>
+  </si>
+  <si>
+    <t>Menyediakan pemahaman dan keterampilan dalam analisis dan interpretasi data kompleks.</t>
+  </si>
+  <si>
+    <t>Mengembangkan kemampuan dalam merancang dan menerapkan sistem berbasis AI dan mesin cerdas.</t>
+  </si>
+  <si>
+    <t>Mempelajari teknik statistik modern untuk mengolah dan menganalisis data berskala besar.</t>
+  </si>
+  <si>
+    <t>Menggabungkan ilmu statistik dan finansial untuk analisis risiko dan perencanaan keuangan.</t>
   </si>
 </sst>
 </file>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C88789C-C988-4222-8073-E68749892E0B}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -642,82 +642,82 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -725,19 +725,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -765,19 +765,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -785,19 +785,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -805,19 +805,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -825,19 +825,19 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -865,19 +865,19 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -885,19 +885,19 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -905,19 +905,19 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
